--- a/Outputs/Tables/T1 – ELOW.xlsx
+++ b/Outputs/Tables/T1 – ELOW.xlsx
@@ -141,22 +141,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6837769766230557</v>
+        <v>5.415607038429408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07628074273271244</v>
+        <v>0.04909856695864751</v>
       </c>
       <c r="E2" t="n">
-        <v>9.356982956689508</v>
+        <v>8.585746351829187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8166235152690321</v>
+        <v>0.08170764036486779</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.673205980066452</v>
+        <v>-3.1701393133997784</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8130530203981144</v>
+        <v>0.06531055976334746</v>
       </c>
     </row>
     <row r="3">
@@ -167,22 +167,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7405442189660025</v>
+        <v>2.4723742807723545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07653438757057367</v>
+        <v>0.04949171694679134</v>
       </c>
       <c r="E3" t="n">
-        <v>3.7169042654236155</v>
+        <v>2.945667660563294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.815150446122189</v>
+        <v>0.06536377143989809</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.976360046457613</v>
+        <v>-0.4732933797909396</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8115495901868234</v>
+        <v>0.04269651707699265</v>
       </c>
     </row>
     <row r="4">
@@ -193,22 +193,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2990429311783935</v>
+        <v>4.0308729929847456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08562652709008793</v>
+        <v>0.06264039995919642</v>
       </c>
       <c r="E4" t="n">
-        <v>7.755116682630199</v>
+        <v>6.983880077769879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8156180636241664</v>
+        <v>0.07095772342513837</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.456073751451806</v>
+        <v>-2.9530070847851326</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8111109193991444</v>
+        <v>0.033334348750655635</v>
       </c>
     </row>
     <row r="5">
@@ -219,22 +219,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>14.143147502903616</v>
+        <v>3.5664223567047717</v>
       </c>
       <c r="D5" t="n">
-        <v>7.072856949980885</v>
+        <v>0.19510908889911432</v>
       </c>
       <c r="E5" t="n">
-        <v>15.044934660190775</v>
+        <v>4.535635078992965</v>
       </c>
       <c r="F5" t="n">
-        <v>7.072879010641539</v>
+        <v>0.19583687126746802</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9017871572871573</v>
+        <v>-0.9692127222881931</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01766534122842976</v>
+        <v>0.01686782667649689</v>
       </c>
     </row>
     <row r="6">
@@ -245,22 +245,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1138282828283</v>
+        <v>6.5371031366294545</v>
       </c>
       <c r="D6" t="n">
-        <v>7.073294469112047</v>
+        <v>0.2103729270823665</v>
       </c>
       <c r="E6" t="n">
-        <v>18.653224386724407</v>
+        <v>8.143924805526595</v>
       </c>
       <c r="F6" t="n">
-        <v>7.073364175510509</v>
+        <v>0.21263899070881323</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.5393961038961044</v>
+        <v>-1.6068216688971404</v>
       </c>
       <c r="H6" t="n">
-        <v>0.031402430230614134</v>
+        <v>0.030960812658263157</v>
       </c>
     </row>
     <row r="7">
@@ -271,22 +271,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>13.816741779788856</v>
+        <v>3.499002126528445</v>
       </c>
       <c r="D7" t="n">
-        <v>7.070211008606275</v>
+        <v>0.03130368311456001</v>
       </c>
       <c r="E7" t="n">
-        <v>15.10203361652355</v>
+        <v>4.851719528264175</v>
       </c>
       <c r="F7" t="n">
-        <v>7.070223320170978</v>
+        <v>0.033562937070011206</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.2852918367346933</v>
+        <v>-1.3527174017357293</v>
       </c>
       <c r="H7" t="n">
-        <v>0.013194350008896337</v>
+        <v>0.012105790689944319</v>
       </c>
     </row>
   </sheetData>
